--- a/biology/Zoologie/Holothuria_(Cystipus)/Holothuria_(Cystipus).xlsx
+++ b/biology/Zoologie/Holothuria_(Cystipus)/Holothuria_(Cystipus).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holothuria (Cystipus) est un sous-genre de concombres de mer de la famille des Holothuriidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-genre Holothuria (Cystipus) a été initialement créé en 1880 comme un genre à part entière par le zoologiste allemand Johann Wilhelm Haacke (1855-1912). Toutefois des données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-genre Holothuria (Cystipus) a été initialement créé en 1880 comme un genre à part entière par le zoologiste allemand Johann Wilhelm Haacke (1855-1912). Toutefois des données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (10 janvier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (10 janvier 2021) :
 Holothuria casoae Laguarda-Figueras &amp; Solís-Marín, 2009 -- Pacifique central est
 Holothuria cubana Ludwig, 1875 -- Caraïbes
 Holothuria dura Cherbonnier &amp; Féral, 1981 -- Pacifique ouest
